--- a/input/mappings/scaling/EMEP_NFR14_scaling_mapping_SO2.xlsx
+++ b/input/mappings/scaling/EMEP_NFR14_scaling_mapping_SO2.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emcduffie/Documents/GEOS-Chem/CEDS/CEDS_v0611/input/mappings/scaling/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51B8F60-E454-0A4F-A306-770A7B5440A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
     <sheet name="method" sheetId="2" r:id="rId2"/>
     <sheet name="year" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -419,7 +425,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1059,6 +1065,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1385,14 +1394,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
@@ -1400,7 +1409,7 @@
     <col min="5" max="6" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -1413,7 +1422,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1426,7 +1435,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>72</v>
       </c>
@@ -1436,7 +1445,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>71</v>
       </c>
@@ -1446,7 +1455,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1459,7 +1468,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>72</v>
       </c>
@@ -1469,7 +1478,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>72</v>
       </c>
@@ -1479,7 +1488,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>72</v>
       </c>
@@ -1489,7 +1498,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>72</v>
       </c>
@@ -1499,7 +1508,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>72</v>
       </c>
@@ -1509,7 +1518,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>72</v>
       </c>
@@ -1519,7 +1528,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>72</v>
       </c>
@@ -1529,7 +1538,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>72</v>
       </c>
@@ -1539,7 +1548,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>72</v>
       </c>
@@ -1549,7 +1558,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>72</v>
       </c>
@@ -1559,7 +1568,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>72</v>
       </c>
@@ -1569,7 +1578,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>72</v>
       </c>
@@ -1579,7 +1588,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>72</v>
       </c>
@@ -1589,7 +1598,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1601,7 +1610,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>74</v>
       </c>
@@ -1609,7 +1618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>74</v>
       </c>
@@ -1617,7 +1626,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>72</v>
       </c>
@@ -1627,7 +1636,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>72</v>
       </c>
@@ -1637,7 +1646,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>72</v>
       </c>
@@ -1647,7 +1656,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>72</v>
       </c>
@@ -1656,7 +1665,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>72</v>
       </c>
@@ -1665,7 +1674,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>72</v>
       </c>
@@ -1674,7 +1683,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>72</v>
       </c>
@@ -1683,7 +1692,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>72</v>
       </c>
@@ -1692,7 +1701,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B30" s="4" t="s">
         <v>72</v>
       </c>
@@ -1701,7 +1710,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -1713,7 +1722,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>75</v>
       </c>
@@ -1722,7 +1731,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>75</v>
       </c>
@@ -1731,7 +1740,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>75</v>
       </c>
@@ -1740,7 +1749,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>75</v>
       </c>
@@ -1749,7 +1758,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>75</v>
       </c>
@@ -1758,7 +1767,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -1770,7 +1779,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -1779,7 +1788,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -1788,7 +1797,7 @@
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1798,7 +1807,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -1808,7 +1817,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -1821,7 +1830,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1833,7 +1842,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>81</v>
       </c>
@@ -1842,7 +1851,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>81</v>
       </c>
@@ -1851,7 +1860,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>81</v>
       </c>
@@ -1860,7 +1869,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>57</v>
       </c>
@@ -1872,39 +1881,39 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>44</v>
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>45</v>
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" t="s">
         <v>46</v>
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" t="s">
         <v>44</v>
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -1916,7 +1925,7 @@
       </c>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -1928,7 +1937,7 @@
       </c>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" t="s">
         <v>85</v>
@@ -1939,7 +1948,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" t="s">
         <v>85</v>
@@ -1950,7 +1959,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
         <v>85</v>
@@ -1961,7 +1970,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>85</v>
       </c>
@@ -1971,7 +1980,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>85</v>
       </c>
@@ -1981,14 +1990,14 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -1996,7 +2005,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -2004,253 +2013,253 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C63" s="4"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="C73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="C74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="C75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="C76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="C77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
       <c r="C78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="3"/>
       <c r="C79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
       <c r="C80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="3"/>
       <c r="C81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="3"/>
       <c r="C83" s="1"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
       <c r="C84" s="1"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="3"/>
       <c r="C85" s="1"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="3"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E92" s="1"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E93" s="1"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E94" s="1"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C95" s="1"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E104" s="1"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="6:6">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="6:6">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="6:6">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="6:6">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F116" s="1"/>
     </row>
-    <row r="126" spans="6:6">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F126" s="1"/>
     </row>
   </sheetData>
@@ -2264,7 +2273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2272,14 +2281,14 @@
       <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2302,7 +2311,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -2322,7 +2331,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -2342,7 +2351,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -2362,7 +2371,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>103</v>
       </c>
@@ -2382,7 +2391,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -2402,7 +2411,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -2422,7 +2431,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>104</v>
       </c>
@@ -2442,7 +2451,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -2462,7 +2471,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -2482,7 +2491,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>105</v>
       </c>
@@ -2502,7 +2511,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -2522,7 +2531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>105</v>
       </c>
@@ -2542,7 +2551,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -2562,7 +2571,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>106</v>
       </c>
@@ -2582,7 +2591,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -2602,7 +2611,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -2622,7 +2631,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -2642,7 +2651,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -2662,7 +2671,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>108</v>
       </c>
@@ -2682,7 +2691,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -2702,7 +2711,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -2722,7 +2731,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -2742,7 +2751,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>109</v>
       </c>
@@ -2762,7 +2771,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -2782,7 +2791,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -2802,7 +2811,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -2822,7 +2831,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -2842,7 +2851,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -2862,7 +2871,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -2882,7 +2891,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -2902,7 +2911,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -2922,7 +2931,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -2942,7 +2951,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -2962,7 +2971,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>112</v>
       </c>
@@ -2982,7 +2991,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -3002,7 +3011,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -3022,7 +3031,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -3042,7 +3051,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -3062,7 +3071,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -3082,7 +3091,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>115</v>
       </c>
@@ -3102,7 +3111,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -3122,7 +3131,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>115</v>
       </c>
@@ -3142,7 +3151,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>116</v>
       </c>
@@ -3162,7 +3171,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>116</v>
       </c>
@@ -3182,7 +3191,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>116</v>
       </c>
@@ -3202,7 +3211,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>116</v>
       </c>
@@ -3222,7 +3231,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>117</v>
       </c>
@@ -3242,7 +3251,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>117</v>
       </c>
@@ -3262,7 +3271,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>117</v>
       </c>
@@ -3282,7 +3291,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -3302,7 +3311,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -3322,7 +3331,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -3342,7 +3351,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -3362,7 +3371,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -3382,7 +3391,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>120</v>
       </c>
@@ -3402,7 +3411,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -3422,7 +3431,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -3442,7 +3451,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>120</v>
       </c>
@@ -3462,7 +3471,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>121</v>
       </c>
@@ -3482,7 +3491,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -3502,7 +3511,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -3522,7 +3531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>121</v>
       </c>
@@ -3542,7 +3551,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -3562,7 +3571,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>123</v>
       </c>
@@ -3582,7 +3591,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>123</v>
       </c>
@@ -3602,7 +3611,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>123</v>
       </c>
@@ -3622,7 +3631,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -3642,7 +3651,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>127</v>
       </c>
@@ -3662,7 +3671,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>127</v>
       </c>
@@ -3682,7 +3691,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -3702,7 +3711,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>119</v>
       </c>
@@ -3722,7 +3731,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>119</v>
       </c>
@@ -3742,7 +3751,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -3762,7 +3771,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -3782,7 +3791,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>118</v>
       </c>
@@ -3802,7 +3811,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>118</v>
       </c>
@@ -3822,7 +3831,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>118</v>
       </c>
@@ -3842,7 +3851,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>118</v>
       </c>
@@ -3862,7 +3871,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>113</v>
       </c>
@@ -3882,7 +3891,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -3902,7 +3911,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>113</v>
       </c>
@@ -3922,7 +3931,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>113</v>
       </c>
@@ -3942,7 +3951,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>111</v>
       </c>
@@ -3962,7 +3971,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>111</v>
       </c>
@@ -3982,7 +3991,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>111</v>
       </c>
@@ -4002,7 +4011,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>111</v>
       </c>
@@ -4022,7 +4031,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -4042,7 +4051,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>124</v>
       </c>
@@ -4062,7 +4071,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>124</v>
       </c>
@@ -4082,7 +4091,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>124</v>
       </c>
@@ -4102,7 +4111,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>122</v>
       </c>
@@ -4122,7 +4131,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>122</v>
       </c>
@@ -4142,7 +4151,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>122</v>
       </c>
@@ -4162,7 +4171,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>122</v>
       </c>
@@ -4182,7 +4191,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>107</v>
       </c>
@@ -4202,7 +4211,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -4222,7 +4231,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>107</v>
       </c>
@@ -4242,7 +4251,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -4262,7 +4271,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>125</v>
       </c>
@@ -4282,7 +4291,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>125</v>
       </c>
@@ -4302,7 +4311,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -4322,7 +4331,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>125</v>
       </c>
@@ -4342,7 +4351,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>126</v>
       </c>
@@ -4362,7 +4371,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -4382,7 +4391,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -4402,7 +4411,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -4422,7 +4431,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>96</v>
       </c>
@@ -4442,7 +4451,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>96</v>
       </c>
@@ -4462,7 +4471,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>96</v>
       </c>
@@ -4482,7 +4491,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>96</v>
       </c>
@@ -4502,7 +4511,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -4522,7 +4531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>114</v>
       </c>
@@ -4542,7 +4551,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -4562,7 +4571,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -4583,7 +4592,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F123">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F123">
     <sortCondition ref="A2:A123"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4596,16 +4605,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4631,7 +4640,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>96</v>
       </c>
@@ -4651,13 +4660,13 @@
         <v>1990</v>
       </c>
       <c r="G2">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="H2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>98</v>
       </c>
@@ -4683,7 +4692,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -4709,7 +4718,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>126</v>
       </c>
